--- a/experiment result cnn/8192_0.3_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/8192_0.3_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008370228228772477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001402283793683013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.002837747462661311</v>
+        <v>0.000300273999402822</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004613708471723648</v>
+        <v>0.003489264383930104</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.002750739094168335</v>
+        <v>0.01009569964725975</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01074495948039849</v>
+        <v>0.003196427403916115</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.001924741476272408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.00393923454961965</v>
+        <v>0.0002001039999378496</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.000880280778698464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.001121183267999465</v>
+        <v>0.00373790724900374</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.000320237124550833</v>
+        <v>0.01481449364294462</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0005997335574422899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02255525288782339</v>
+        <v>0.03505374407957097</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01862578124021559</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00128262273561209</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00520197622636529</v>
+        <v>0.002449723645645573</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.000920200325841387</v>
+        <v>8.00319999897518e-05</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.001871724907486921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0004201911585338714</v>
+        <v>0.004876291491801064</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.001341448486503081</v>
+        <v>0.01308979570091064</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00459102247562827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0005395067186818855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.007881037191783452</v>
+        <v>0.01137046972576741</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.000179937514466878</v>
+        <v>0.01282591048896193</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0006201760283272923</v>
+        <v>0.0007217798012685335</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.603644425247534e-08</v>
+        <v>0.00387131962998425</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.00315753894102399</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.003286934886381721</v>
+        <v>0.0007016659751795171</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.001521709245032061</v>
+        <v>0.001507593473800889</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0006191641962001975</v>
+        <v>0.02880584100657884</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.006118433282127314</v>
+        <v>0.006817243580922555</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01104474851613448</v>
+        <v>0.0006419239628293767</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0008200575563038897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.001783255207213258</v>
+        <v>0.02091830542729316</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.002534158784207811</v>
+        <v>0.002344246013317237</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0167022571476396</v>
+        <v>0.0009015979836129352</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0004003386920052773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.001080260129465408</v>
+        <v>0.0006208939945037204</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.00109940803619531</v>
+        <v>0.02125899187640362</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.005406250897599181</v>
+        <v>0.0007418099713800926</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01231150274501667</v>
+        <v>0.0005605039986839595</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.003097332878896435</v>
+        <v>0.0001800539999902742</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00351232892068736</v>
+        <v>0.005097627838883288</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0123348171403414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.001040005880830489</v>
+        <v>0.004247415466243307</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.002915735822764952</v>
+        <v>0.0004808999921847766</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.003260196852118267</v>
+        <v>0.000400655995785176</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01418622724269812</v>
+        <v>0.04275039678887647</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.002082139025148396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.002810691754799398</v>
+        <v>0.0006009359949543831</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.008784470525534908</v>
+        <v>0.143353796741544</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06049546672429992</v>
+        <v>0.1313662229625907</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.009325874824956937</v>
+        <v>0.006455529299127241</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.004175525573288575</v>
+        <v>0.02882244544384113</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.004262063987729214</v>
+        <v>0.05483170145927287</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03304484975844781</v>
+        <v>0.001955238100565343</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1875299923247462</v>
+        <v>0.002580232504162792</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.007683878439215787</v>
+        <v>0.02024949659093397</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.005377754175868782</v>
+        <v>0.01250102991857631</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.003154942254845204</v>
+        <v>0.03978994752051877</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.000159862433674865</v>
+        <v>0.01516841699996811</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.004401873568368099</v>
+        <v>0.004891255435556689</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.003714860834467132</v>
+        <v>0.03992635200018496</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001845576221549187</v>
+        <v>0.003371293709353544</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02613768555280808</v>
+        <v>0.01398800723029948</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0001599989408256035</v>
+        <v>0.005967160220416266</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.08885316739958932</v>
+        <v>0.02294467129751891</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02795515582149853</v>
+        <v>0.01421781633466629</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04116975389774834</v>
+        <v>0.01413031551310293</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02725892007580423</v>
+        <v>0.02332554769876187</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01330641947803988</v>
+        <v>0.166426697858407</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.009743889667386995</v>
+        <v>0.03406200229057788</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0008404843054699353</v>
+        <v>0.03245776294164726</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.003168434567517099</v>
+        <v>0.01142702947020071</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07283722576631749</v>
+        <v>0.03721862892077575</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0871167575510117</v>
+        <v>0.009227705068816178</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.00480060752206332</v>
+        <v>0.01736846770466861</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0003584678930557659</v>
+        <v>0.01858063556141896</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01432538164781994</v>
+        <v>0.045923425590377</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0205049858644452</v>
+        <v>0.06553240407765859</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0489117709259107</v>
+        <v>0.01738329654594584</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.001427782577540742</v>
+        <v>0.02120779263027755</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.005978740628370298</v>
+        <v>0.003706784538602741</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.016235793622735</v>
+        <v>0.003563509776388179</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01661734068996541</v>
+        <v>0.04025133739056209</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.02773563757200507</v>
+        <v>0.005066003239060717</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0224435021986429</v>
+        <v>0.005460380174241072</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.001137408480075175</v>
+        <v>0.01051451272585895</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.04981818376256665</v>
+        <v>0.089867854411148</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0551101976006933</v>
+        <v>0.0967892590871799</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.03832019152358333</v>
+        <v>0.1397224377443423</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0101756147167315</v>
+        <v>0.08429034404768486</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.05812423615487825</v>
+        <v>0.00444139530817284</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.003407862476653244</v>
+        <v>0.01062985652671995</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01484615708909573</v>
+        <v>0.0006612339866125237</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02155993291860308</v>
+        <v>0.01060717254331792</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.04795771115029025</v>
+        <v>0.009552394732152487</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.04269738126190488</v>
+        <v>0.03774741367297459</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02131107746984368</v>
+        <v>0.02059294515695628</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2430831199211109</v>
+        <v>0.1279158487524445</v>
       </c>
     </row>
   </sheetData>
